--- a/OutReachServiceLayer/ExcelReports/EventSummary_Bags of Joy Distribution.xlsx
+++ b/OutReachServiceLayer/ExcelReports/EventSummary_Bags of Joy Distribution.xlsx
@@ -67,22 +67,19 @@
     <x:t>Singapore</x:t>
   </x:si>
   <x:si>
-    <x:t>good</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nothing such</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nice Event</x:t>
   </x:si>
   <x:si>
-    <x:t>Should be more often</x:t>
+    <x:t>Nothing Such</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Okay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Everything</x:t>
   </x:si>
   <x:si>
     <x:t>Did Not Receive Further Information About Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,7 +490,7 @@
         <x:v>330721</x:v>
       </x:c>
       <x:c r="F2" s="2" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
         <x:v>13</x:v>
@@ -519,7 +516,7 @@
         <x:v>741602</x:v>
       </x:c>
       <x:c r="F3" s="2" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
         <x:v>15</x:v>
@@ -839,65 +836,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:F1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
-    <x:col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <x:col min="6" max="6" width="41.28515625" style="2" customWidth="1"/>
-    <x:col min="7" max="16384" width="9.140625" style="2"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2">
-      <x:c r="A2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" t="n">
-        <x:v>711876</x:v>
-      </x:c>
-      <x:c r="F2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>